--- a/GUI/Расположение элементов.xlsx
+++ b/GUI/Расположение элементов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\Github\Dambassa\OPSiS\Connect\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD1892-AC29-4054-B8CB-E9ED78126DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A27F801-13A3-4961-8C98-D96902327A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{623F10FE-818A-482C-A79D-04A3DBDD9467}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>Что где находится</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>edit11</t>
+  </si>
+  <si>
+    <t>pushbutton14</t>
+  </si>
+  <si>
+    <t>Тест построения маршрутов</t>
+  </si>
+  <si>
+    <t>uipanel10</t>
   </si>
 </sst>
 </file>
@@ -366,38 +375,42 @@
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -407,8 +420,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,8 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -734,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3BE130-71F3-43FA-9556-B2E02C4E82A8}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,427 +759,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="4"/>
+      <c r="G2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="10" t="s">
+      <c r="E3" s="6"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="10" t="s">
+      <c r="E4" s="6"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="24" t="s">
+      <c r="E5" s="6"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="10" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="10" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="19" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>63</v>
+      <c r="D40" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="20"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="8" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A25:D28"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G2:G5"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A25:D28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B19:B20"/>
@@ -1178,6 +1193,8 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G2:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GUI/Расположение элементов.xlsx
+++ b/GUI/Расположение элементов.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\Github\Dambassa\OPSiS\Connect\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A27F801-13A3-4961-8C98-D96902327A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BC93F2-99FB-4621-97D7-F416091D102C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{623F10FE-818A-482C-A79D-04A3DBDD9467}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{623F10FE-818A-482C-A79D-04A3DBDD9467}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,44 +391,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,23 +760,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -785,10 +786,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>45</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -799,8 +800,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
@@ -808,8 +809,8 @@
         <v>4</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="5" t="s">
         <v>47</v>
       </c>
@@ -818,8 +819,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
@@ -827,8 +828,8 @@
         <v>9</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="5" t="s">
         <v>48</v>
       </c>
@@ -837,8 +838,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
@@ -846,8 +847,8 @@
         <v>10</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="11" t="s">
         <v>53</v>
       </c>
@@ -856,8 +857,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
@@ -867,8 +868,8 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
@@ -882,10 +883,10 @@
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -896,8 +897,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
@@ -906,8 +907,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
@@ -916,8 +917,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
@@ -927,10 +928,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -941,8 +942,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
@@ -951,8 +952,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
@@ -961,8 +962,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
@@ -972,10 +973,10 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -986,8 +987,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
@@ -1000,10 +1001,10 @@
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1014,8 +1015,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
@@ -1027,40 +1028,40 @@
       <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1071,8 +1072,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="5" t="s">
         <v>62</v>
       </c>
@@ -1081,8 +1082,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="5" t="s">
         <v>62</v>
       </c>
@@ -1091,20 +1092,20 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="7" t="s">
         <v>46</v>
       </c>
@@ -1114,10 +1115,10 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1128,8 +1129,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="5" t="s">
         <v>66</v>
       </c>
@@ -1138,8 +1139,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="5" t="s">
         <v>67</v>
       </c>
@@ -1148,8 +1149,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="9" t="s">
         <v>46</v>
       </c>
@@ -1177,12 +1178,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A25:D28"/>
@@ -1195,6 +1190,12 @@
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
